--- a/weld_function/get_data/normal.xlsx
+++ b/weld_function/get_data/normal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,26 +454,6 @@
           <t>weldCur</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sendSpeed</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>weldSpeed</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gasSpeed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
